--- a/PO/data/KILL.xlsx
+++ b/PO/data/KILL.xlsx
@@ -1,34 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linghuchong/Downloads/51/Python/project/PO/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE912C19-3A05-5945-9EFF-973096E446C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hello34" sheetId="5" r:id="rId1"/>
+    <sheet name="abc" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="titi" sheetId="7" r:id="rId4"/>
+    <sheet name="jinhao" sheetId="6" r:id="rId5"/>
+    <sheet name="yoyo" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+  <si>
+    <t>jinhao</t>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呃呃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呃呃e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,12 +97,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -340,19 +399,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088EE822-CBAB-F543-A880-819F2EA66BD9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0269A2D5-5673-6E4D-9E68-3F0191C3EA2A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C421F7-2AA9-2C44-A10F-5DE66613BBB2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2462BBDB-F00D-E34D-952D-5C679A1DD335}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BF677D-8261-6745-A7AB-72D7CF3D63FF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE79D74-2284-F844-9680-28D5E9F9511E}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="4" width="33.83203125" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="33" customHeight="1">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="33" customHeight="1">
+      <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>33</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33" customHeight="1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>44</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="33" customHeight="1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33" customHeight="1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFB0FB9-BB69-0D4D-90F8-0E8D01C4A45C}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="4" width="33.83203125" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="33" customHeight="1">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="33" customHeight="1">
+      <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>33</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33" customHeight="1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>44</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="33" customHeight="1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33" customHeight="1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>